--- a/data/trans_bre/P57_AC_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P57_AC_R-Estudios-trans_bre.xlsx
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>dukeCdic</t>
+          <t>Población con apoyo confidencial bajo (Duke)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_bre/P57_AC_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P57_AC_R-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P57_AC_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P57_AC_R-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,84</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,37</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,84</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,46</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,18%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,39%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,16%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,45; 7,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,23; 9,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,92; 9,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,89; 8,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,58; 10,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,79; 13,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,35; 12,31</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,34; 12,81</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,56</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,45</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,81</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,01%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,97%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,54; 6,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,25; 11,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,21; 5,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,98; 7,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,83; 9,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,01; 18,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,24; 6,42</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,56; 13,75</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,23</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,12</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,33%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,57%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,99%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,3; 1,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,54; 8,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,55; 3,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,51; 1,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,79; 2,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,33; 13,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,54; 5,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,28; 2,65</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,87</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,02</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,36%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,91%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,62; 5,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,64; 9,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,03; 4,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,96; 5,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,91; 7,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,88; 14,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,29; 6,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,53; 8,68</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P57_AC_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P57_AC_R-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,46</t>
+          <t>3,62</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>5,48%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 8,26</t>
+          <t>-0,96; 8,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 12,81</t>
+          <t>-1,42; 13,63</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,41</t>
+          <t>5,71</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>10,51%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 7,93</t>
+          <t>-2,22; 24,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 13,75</t>
+          <t>-3,96; 66,42</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,12</t>
+          <t>-3,7</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-6,99%</t>
+          <t>-6,35%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,51; 1,36</t>
+          <t>-9,26; 1,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-15,28; 2,65</t>
+          <t>-15,05; 3,65</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,79</t>
+          <t>4,28</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>7,53%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 5,1</t>
+          <t>-1,49; 17,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 8,68</t>
+          <t>-2,39; 37,71</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P57_AC_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P57_AC_R-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,45; 7,39</t>
+          <t>0,34; 7,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,23; 9,18</t>
+          <t>1,32; 9,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,92; 9,45</t>
+          <t>2,1; 9,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 8,55</t>
+          <t>-1,28; 8,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,58; 10,26</t>
+          <t>0,55; 10,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,79; 13,54</t>
+          <t>1,85; 13,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,35; 12,31</t>
+          <t>2,54; 12,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 13,63</t>
+          <t>-1,84; 12,98</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 6,09</t>
+          <t>-0,66; 6,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,25; 11,49</t>
+          <t>5,24; 11,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,21; 5,09</t>
+          <t>0,23; 5,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 24,45</t>
+          <t>-3,08; 22,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 9,63</t>
+          <t>-0,99; 10,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,01; 18,15</t>
+          <t>7,93; 18,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,24; 6,42</t>
+          <t>0,28; 6,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 66,42</t>
+          <t>-5,13; 57,38</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,3; 1,87</t>
+          <t>-10,39; 1,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 8,24</t>
+          <t>-6,1; 7,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 3,99</t>
+          <t>-6,96; 4,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,26; 1,94</t>
+          <t>-9,51; 1,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-14,79; 2,95</t>
+          <t>-14,98; 2,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,33; 13,82</t>
+          <t>-9,06; 13,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-8,54; 5,59</t>
+          <t>-9,14; 6,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-15,05; 3,65</t>
+          <t>-15,45; 3,25</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,62; 5,18</t>
+          <t>0,64; 5,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,64; 9,22</t>
+          <t>4,41; 9,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,03; 4,73</t>
+          <t>0,95; 5,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 17,39</t>
+          <t>-1,34; 17,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,91; 7,74</t>
+          <t>0,92; 7,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,88; 14,22</t>
+          <t>6,5; 13,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,29; 6,05</t>
+          <t>1,2; 6,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 37,71</t>
+          <t>-2,22; 38,6</t>
         </is>
       </c>
     </row>
